--- a/4_NOVEMBER_ATTENDANCE_SUBMITTED_DPG_Advance Control System.xlsx
+++ b/4_NOVEMBER_ATTENDANCE_SUBMITTED_DPG_Advance Control System.xlsx
@@ -587,7 +587,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="C:\Users\user\Desktop\full final logo emboss.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -892,7 +892,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="D8" sqref="D8:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1041,8 +1041,12 @@
       <c r="D10" s="20">
         <v>5</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="18"/>
+      <c r="E10" s="20">
+        <v>18</v>
+      </c>
+      <c r="F10" s="18">
+        <v>19</v>
+      </c>
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
       <c r="I10" s="42" t="s">
@@ -1081,13 +1085,17 @@
       <c r="D12" s="16">
         <v>3</v>
       </c>
-      <c r="E12" s="27"/>
-      <c r="F12" s="16"/>
+      <c r="E12" s="27">
+        <v>3</v>
+      </c>
+      <c r="F12" s="16">
+        <v>3</v>
+      </c>
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
       <c r="I12" s="17">
         <f>SUM(D12:H12)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J12" s="23">
         <f>(I9/$I$12)*100</f>
@@ -1119,13 +1127,17 @@
       <c r="D14" s="15">
         <v>3</v>
       </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
+      <c r="E14" s="15">
+        <v>3</v>
+      </c>
+      <c r="F14" s="15">
+        <v>3</v>
+      </c>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
       <c r="I14" s="8">
         <f t="shared" ref="I14:I22" si="0">SUM(D14:H14)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J14" s="19">
         <f t="shared" ref="J14:J22" si="1">(I14/$I$12)*100</f>
@@ -1143,17 +1155,21 @@
       <c r="D15" s="15">
         <v>0</v>
       </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
+      <c r="E15" s="15">
+        <v>3</v>
+      </c>
+      <c r="F15" s="15">
+        <v>3</v>
+      </c>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
       <c r="I15" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J15" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>66.666666666666657</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1167,13 +1183,17 @@
       <c r="D16" s="15">
         <v>3</v>
       </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
+      <c r="E16" s="15">
+        <v>3</v>
+      </c>
+      <c r="F16" s="15">
+        <v>3</v>
+      </c>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
       <c r="I16" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J16" s="19">
         <f t="shared" si="1"/>
@@ -1191,13 +1211,17 @@
       <c r="D17" s="15">
         <v>3</v>
       </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
+      <c r="E17" s="15">
+        <v>3</v>
+      </c>
+      <c r="F17" s="15">
+        <v>3</v>
+      </c>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
       <c r="I17" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J17" s="19">
         <f t="shared" si="1"/>
@@ -1215,13 +1239,17 @@
       <c r="D18" s="15">
         <v>3</v>
       </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
+      <c r="E18" s="15">
+        <v>3</v>
+      </c>
+      <c r="F18" s="15">
+        <v>3</v>
+      </c>
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
       <c r="I18" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J18" s="19">
         <f t="shared" si="1"/>
@@ -1239,17 +1267,21 @@
       <c r="D19" s="15">
         <v>0</v>
       </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
+      <c r="E19" s="15">
+        <v>3</v>
+      </c>
+      <c r="F19" s="15">
+        <v>3</v>
+      </c>
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
       <c r="I19" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J19" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>66.666666666666657</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1263,13 +1295,17 @@
       <c r="D20" s="15">
         <v>3</v>
       </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
+      <c r="E20" s="15">
+        <v>3</v>
+      </c>
+      <c r="F20" s="15">
+        <v>3</v>
+      </c>
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
       <c r="I20" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J20" s="19">
         <f t="shared" si="1"/>
@@ -1287,8 +1323,12 @@
       <c r="D21" s="15">
         <v>0</v>
       </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
+      <c r="E21" s="15">
+        <v>0</v>
+      </c>
+      <c r="F21" s="15">
+        <v>0</v>
+      </c>
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
       <c r="I21" s="8">
@@ -1311,8 +1351,12 @@
       <c r="D22" s="15">
         <v>3</v>
       </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
+      <c r="E22" s="15">
+        <v>0</v>
+      </c>
+      <c r="F22" s="15">
+        <v>0</v>
+      </c>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
       <c r="I22" s="8">
@@ -1321,7 +1365,7 @@
       </c>
       <c r="J22" s="19">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>33.333333333333329</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1335,8 +1379,12 @@
       <c r="D23" s="15">
         <v>0</v>
       </c>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
+      <c r="E23" s="15">
+        <v>0</v>
+      </c>
+      <c r="F23" s="15">
+        <v>0</v>
+      </c>
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
       <c r="I23" s="8">
@@ -1359,8 +1407,12 @@
       <c r="D24" s="15">
         <v>0</v>
       </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
+      <c r="E24" s="15">
+        <v>0</v>
+      </c>
+      <c r="F24" s="15">
+        <v>0</v>
+      </c>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
       <c r="I24" s="8">
@@ -1383,13 +1435,17 @@
       <c r="D25" s="15">
         <v>3</v>
       </c>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
+      <c r="E25" s="15">
+        <v>3</v>
+      </c>
+      <c r="F25" s="15">
+        <v>3</v>
+      </c>
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
       <c r="I25" s="8">
         <f>SUM(D25:H25)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J25" s="19">
         <f>(I25/$I$12)*100</f>

--- a/4_NOVEMBER_ATTENDANCE_SUBMITTED_DPG_Advance Control System.xlsx
+++ b/4_NOVEMBER_ATTENDANCE_SUBMITTED_DPG_Advance Control System.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>Balochistan University of Engineering &amp; Technology, Khuzdar</t>
   </si>
@@ -587,7 +587,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="C:\Users\user\Desktop\full final logo emboss.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -891,8 +891,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:H8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1047,7 +1047,9 @@
       <c r="F10" s="18">
         <v>19</v>
       </c>
-      <c r="G10" s="18"/>
+      <c r="G10" s="18">
+        <v>26</v>
+      </c>
       <c r="H10" s="18"/>
       <c r="I10" s="42" t="s">
         <v>9</v>
@@ -1071,7 +1073,9 @@
       <c r="F11" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="22"/>
+      <c r="G11" s="24" t="s">
+        <v>36</v>
+      </c>
       <c r="H11" s="22"/>
       <c r="I11" s="43"/>
       <c r="J11" s="38"/>
@@ -1091,11 +1095,13 @@
       <c r="F12" s="16">
         <v>3</v>
       </c>
-      <c r="G12" s="16"/>
+      <c r="G12" s="16">
+        <v>3</v>
+      </c>
       <c r="H12" s="16"/>
       <c r="I12" s="17">
         <f>SUM(D12:H12)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J12" s="23">
         <f>(I9/$I$12)*100</f>
@@ -1133,11 +1139,13 @@
       <c r="F14" s="15">
         <v>3</v>
       </c>
-      <c r="G14" s="15"/>
+      <c r="G14" s="15">
+        <v>3</v>
+      </c>
       <c r="H14" s="15"/>
       <c r="I14" s="8">
         <f t="shared" ref="I14:I22" si="0">SUM(D14:H14)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J14" s="19">
         <f t="shared" ref="J14:J22" si="1">(I14/$I$12)*100</f>
@@ -1161,15 +1169,17 @@
       <c r="F15" s="15">
         <v>3</v>
       </c>
-      <c r="G15" s="15"/>
+      <c r="G15" s="15">
+        <v>3</v>
+      </c>
       <c r="H15" s="15"/>
       <c r="I15" s="8">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J15" s="19">
         <f t="shared" si="1"/>
-        <v>66.666666666666657</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1189,7 +1199,9 @@
       <c r="F16" s="15">
         <v>3</v>
       </c>
-      <c r="G16" s="15"/>
+      <c r="G16" s="15">
+        <v>0</v>
+      </c>
       <c r="H16" s="15"/>
       <c r="I16" s="8">
         <f t="shared" si="0"/>
@@ -1197,7 +1209,7 @@
       </c>
       <c r="J16" s="19">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1217,7 +1229,9 @@
       <c r="F17" s="15">
         <v>3</v>
       </c>
-      <c r="G17" s="15"/>
+      <c r="G17" s="15">
+        <v>0</v>
+      </c>
       <c r="H17" s="15"/>
       <c r="I17" s="8">
         <f t="shared" si="0"/>
@@ -1225,7 +1239,7 @@
       </c>
       <c r="J17" s="19">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1245,7 +1259,9 @@
       <c r="F18" s="15">
         <v>3</v>
       </c>
-      <c r="G18" s="15"/>
+      <c r="G18" s="15">
+        <v>0</v>
+      </c>
       <c r="H18" s="15"/>
       <c r="I18" s="8">
         <f t="shared" si="0"/>
@@ -1253,7 +1269,7 @@
       </c>
       <c r="J18" s="19">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1273,7 +1289,9 @@
       <c r="F19" s="15">
         <v>3</v>
       </c>
-      <c r="G19" s="15"/>
+      <c r="G19" s="15">
+        <v>0</v>
+      </c>
       <c r="H19" s="15"/>
       <c r="I19" s="8">
         <f t="shared" si="0"/>
@@ -1281,7 +1299,7 @@
       </c>
       <c r="J19" s="19">
         <f t="shared" si="1"/>
-        <v>66.666666666666657</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1301,11 +1319,13 @@
       <c r="F20" s="15">
         <v>3</v>
       </c>
-      <c r="G20" s="15"/>
+      <c r="G20" s="15">
+        <v>3</v>
+      </c>
       <c r="H20" s="15"/>
       <c r="I20" s="8">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J20" s="19">
         <f t="shared" si="1"/>
@@ -1329,7 +1349,9 @@
       <c r="F21" s="15">
         <v>0</v>
       </c>
-      <c r="G21" s="15"/>
+      <c r="G21" s="15">
+        <v>0</v>
+      </c>
       <c r="H21" s="15"/>
       <c r="I21" s="8">
         <f t="shared" si="0"/>
@@ -1357,15 +1379,17 @@
       <c r="F22" s="15">
         <v>0</v>
       </c>
-      <c r="G22" s="15"/>
+      <c r="G22" s="15">
+        <v>3</v>
+      </c>
       <c r="H22" s="15"/>
       <c r="I22" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J22" s="19">
         <f t="shared" si="1"/>
-        <v>33.333333333333329</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1385,7 +1409,9 @@
       <c r="F23" s="15">
         <v>0</v>
       </c>
-      <c r="G23" s="15"/>
+      <c r="G23" s="15">
+        <v>0</v>
+      </c>
       <c r="H23" s="15"/>
       <c r="I23" s="8">
         <f>SUM(D23:H23)</f>
@@ -1413,7 +1439,9 @@
       <c r="F24" s="15">
         <v>0</v>
       </c>
-      <c r="G24" s="15"/>
+      <c r="G24" s="15">
+        <v>0</v>
+      </c>
       <c r="H24" s="15"/>
       <c r="I24" s="8">
         <f>SUM(D24:H24)</f>
@@ -1441,7 +1469,9 @@
       <c r="F25" s="15">
         <v>3</v>
       </c>
-      <c r="G25" s="15"/>
+      <c r="G25" s="15">
+        <v>0</v>
+      </c>
       <c r="H25" s="15"/>
       <c r="I25" s="8">
         <f>SUM(D25:H25)</f>
@@ -1449,7 +1479,7 @@
       </c>
       <c r="J25" s="19">
         <f>(I25/$I$12)*100</f>
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="46.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">

--- a/4_NOVEMBER_ATTENDANCE_SUBMITTED_DPG_Advance Control System.xlsx
+++ b/4_NOVEMBER_ATTENDANCE_SUBMITTED_DPG_Advance Control System.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp\Desktop\AdvanceControl\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="November" sheetId="6" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">November!$A$1:$J$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">November!$A$1:$J$25</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
     <t>Balochistan University of Engineering &amp; Technology, Khuzdar</t>
   </si>
@@ -109,46 +109,64 @@
     <t>EE-517</t>
   </si>
   <si>
-    <t>23MEEP-01</t>
-  </si>
-  <si>
-    <t>23MEEP-02</t>
-  </si>
-  <si>
-    <t>23MEEP-03</t>
-  </si>
-  <si>
-    <t>23MEEP-04</t>
-  </si>
-  <si>
-    <t>23MEEP-05</t>
-  </si>
-  <si>
-    <t>23MEEP-06</t>
-  </si>
-  <si>
-    <t>23MEEP-07</t>
-  </si>
-  <si>
-    <t>23MEEP-08</t>
-  </si>
-  <si>
-    <t>23MEEP-09</t>
-  </si>
-  <si>
-    <t>21MEEP-14</t>
-  </si>
-  <si>
-    <t>21MEEP-15</t>
-  </si>
-  <si>
-    <t>21MEEP-19</t>
-  </si>
-  <si>
     <t>November 2023</t>
   </si>
   <si>
     <t>09:00 AM To 12:00 PM</t>
+  </si>
+  <si>
+    <t>23ME-EP01</t>
+  </si>
+  <si>
+    <t>Asma Umer</t>
+  </si>
+  <si>
+    <t>23ME-EP07</t>
+  </si>
+  <si>
+    <t>Mehmood Khan</t>
+  </si>
+  <si>
+    <t>Nabi Baksh</t>
+  </si>
+  <si>
+    <t>Bashir Ahmed</t>
+  </si>
+  <si>
+    <t>Kashif Qamar</t>
+  </si>
+  <si>
+    <t>Salman Atta</t>
+  </si>
+  <si>
+    <t>Rehan Imam</t>
+  </si>
+  <si>
+    <t>Asim Ali</t>
+  </si>
+  <si>
+    <t>23ME-EP02</t>
+  </si>
+  <si>
+    <t>23ME-EP03</t>
+  </si>
+  <si>
+    <t>23ME-EP04</t>
+  </si>
+  <si>
+    <t>23ME-EP05</t>
+  </si>
+  <si>
+    <t>23ME-EP06</t>
+  </si>
+  <si>
+    <t>23ME-EP09</t>
+  </si>
+  <si>
+    <t>21ME-EP19</t>
+  </si>
+  <si>
+    <t>Abdul Basit</t>
   </si>
 </sst>
 </file>
@@ -429,7 +447,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -477,7 +495,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -548,6 +565,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -889,10 +924,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -910,115 +945,115 @@
     <col min="12" max="16384" width="9.09765625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-    </row>
-    <row r="2" spans="1:10" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+    </row>
+    <row r="2" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-    </row>
-    <row r="3" spans="1:10" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+    </row>
+    <row r="3" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-    </row>
-    <row r="4" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+    </row>
+    <row r="4" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-    </row>
-    <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+    </row>
+    <row r="5" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-    </row>
-    <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D5" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+    </row>
+    <row r="6" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-    </row>
-    <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+    </row>
+    <row r="7" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-    </row>
-    <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+    </row>
+    <row r="8" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-    </row>
-    <row r="9" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+    </row>
+    <row r="9" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="7"/>
@@ -1028,20 +1063,20 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="31" t="s">
+    <row r="10" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="32" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="19">
         <v>5</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="19">
         <v>18</v>
       </c>
       <c r="F10" s="18">
@@ -1051,45 +1086,45 @@
         <v>26</v>
       </c>
       <c r="H10" s="18"/>
-      <c r="I10" s="42" t="s">
+      <c r="I10" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="37" t="s">
+      <c r="J10" s="36" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="36.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="32"/>
-      <c r="B11" s="34"/>
+    <row r="11" spans="1:11" ht="36.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="31"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="22"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="38"/>
-    </row>
-    <row r="12" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="32"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="21" t="s">
+      <c r="D11" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="21"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="37"/>
+    </row>
+    <row r="12" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="31"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="20" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="16">
         <v>3</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E12" s="26">
         <v>3</v>
       </c>
       <c r="F12" s="16">
@@ -1103,33 +1138,35 @@
         <f>SUM(D12:H12)</f>
         <v>12</v>
       </c>
-      <c r="J12" s="23">
+      <c r="J12" s="22">
         <f>(I9/$I$12)*100</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="32"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="36"/>
-    </row>
-    <row r="14" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="31"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="35"/>
+    </row>
+    <row r="14" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9">
         <v>1</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="13"/>
+        <v>25</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>28</v>
+      </c>
       <c r="D14" s="15">
         <v>3</v>
       </c>
@@ -1144,22 +1181,25 @@
       </c>
       <c r="H14" s="15"/>
       <c r="I14" s="8">
-        <f t="shared" ref="I14:I22" si="0">SUM(D14:H14)</f>
+        <f t="shared" ref="I14:I21" si="0">SUM(D14:H14)</f>
         <v>12</v>
       </c>
-      <c r="J14" s="19">
-        <f t="shared" ref="J14:J22" si="1">(I14/$I$12)*100</f>
+      <c r="J14" s="43">
+        <f t="shared" ref="J14:J21" si="1">(I14/$I$12)*100</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K14" s="44"/>
+    </row>
+    <row r="15" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="9">
         <v>2</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="14"/>
+        <v>35</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>29</v>
+      </c>
       <c r="D15" s="15">
         <v>0</v>
       </c>
@@ -1177,19 +1217,22 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="J15" s="19">
+      <c r="J15" s="43">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K15" s="44"/>
+    </row>
+    <row r="16" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9">
         <v>3</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="14"/>
+        <v>36</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>33</v>
+      </c>
       <c r="D16" s="15">
         <v>3</v>
       </c>
@@ -1207,19 +1250,22 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J16" s="43">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K16" s="44"/>
+    </row>
+    <row r="17" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="9">
         <v>4</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="14"/>
+        <v>37</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>31</v>
+      </c>
       <c r="D17" s="15">
         <v>3</v>
       </c>
@@ -1237,19 +1283,22 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="J17" s="19">
+      <c r="J17" s="43">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K17" s="44"/>
+    </row>
+    <row r="18" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9">
         <v>5</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="12"/>
+        <v>38</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>34</v>
+      </c>
       <c r="D18" s="15">
         <v>3</v>
       </c>
@@ -1267,257 +1316,180 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="J18" s="19">
+      <c r="J18" s="43">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K18" s="44"/>
+    </row>
+    <row r="19" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9">
         <v>6</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="15">
+        <v>39</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="45">
+        <v>3</v>
+      </c>
+      <c r="E19" s="46">
+        <v>3</v>
+      </c>
+      <c r="F19" s="45">
+        <v>3</v>
+      </c>
+      <c r="G19" s="46">
         <v>0</v>
       </c>
-      <c r="E19" s="15">
-        <v>3</v>
-      </c>
-      <c r="F19" s="15">
-        <v>3</v>
-      </c>
-      <c r="G19" s="15">
-        <v>0</v>
-      </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="8">
+      <c r="H19" s="45"/>
+      <c r="I19" s="48">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="J19" s="19">
+        <v>9</v>
+      </c>
+      <c r="J19" s="47">
         <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+      <c r="K19" s="44"/>
+    </row>
+    <row r="20" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="9">
         <v>7</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="15">
-        <v>3</v>
-      </c>
-      <c r="E20" s="15">
-        <v>3</v>
-      </c>
-      <c r="F20" s="15">
-        <v>3</v>
-      </c>
-      <c r="G20" s="15">
-        <v>3</v>
-      </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="8">
+        <v>27</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="45">
+        <v>3</v>
+      </c>
+      <c r="E20" s="45">
+        <v>3</v>
+      </c>
+      <c r="F20" s="45">
+        <v>3</v>
+      </c>
+      <c r="G20" s="45">
+        <v>3</v>
+      </c>
+      <c r="H20" s="45"/>
+      <c r="I20" s="47">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="J20" s="19">
+      <c r="J20" s="47">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K20" s="44"/>
+    </row>
+    <row r="21" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B21" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="45">
+        <v>3</v>
+      </c>
+      <c r="E21" s="46">
+        <v>3</v>
+      </c>
+      <c r="F21" s="45">
+        <v>0</v>
+      </c>
+      <c r="G21" s="46">
+        <v>3</v>
+      </c>
+      <c r="H21" s="45"/>
+      <c r="I21" s="48">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="J21" s="47">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="K21" s="44"/>
+    </row>
+    <row r="22" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="4">
+        <v>12</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="15">
+      <c r="D22" s="15">
+        <v>3</v>
+      </c>
+      <c r="E22" s="15">
+        <v>3</v>
+      </c>
+      <c r="F22" s="15">
+        <v>3</v>
+      </c>
+      <c r="G22" s="15">
         <v>0</v>
-      </c>
-      <c r="E21" s="15">
-        <v>0</v>
-      </c>
-      <c r="F21" s="15">
-        <v>0</v>
-      </c>
-      <c r="G21" s="15">
-        <v>0</v>
-      </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="9">
-        <v>9</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="15">
-        <v>3</v>
-      </c>
-      <c r="E22" s="15">
-        <v>0</v>
-      </c>
-      <c r="F22" s="15">
-        <v>0</v>
-      </c>
-      <c r="G22" s="15">
-        <v>3</v>
       </c>
       <c r="H22" s="15"/>
       <c r="I22" s="8">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="J22" s="19">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="9">
-        <v>10</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="15">
-        <v>0</v>
-      </c>
-      <c r="E23" s="15">
-        <v>0</v>
-      </c>
-      <c r="F23" s="15">
-        <v>0</v>
-      </c>
-      <c r="G23" s="15">
-        <v>0</v>
-      </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="8">
-        <f>SUM(D23:H23)</f>
-        <v>0</v>
-      </c>
-      <c r="J23" s="19">
-        <f>(I23/$I$12)*100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="9">
-        <v>11</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="15">
-        <v>0</v>
-      </c>
-      <c r="E24" s="15">
-        <v>0</v>
-      </c>
-      <c r="F24" s="15">
-        <v>0</v>
-      </c>
-      <c r="G24" s="15">
-        <v>0</v>
-      </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="8">
-        <f>SUM(D24:H24)</f>
-        <v>0</v>
-      </c>
-      <c r="J24" s="19">
-        <f>(I24/$I$12)*100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="4">
-        <v>12</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="15">
-        <v>3</v>
-      </c>
-      <c r="E25" s="15">
-        <v>3</v>
-      </c>
-      <c r="F25" s="15">
-        <v>3</v>
-      </c>
-      <c r="G25" s="15">
-        <v>0</v>
-      </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="8">
-        <f>SUM(D25:H25)</f>
+        <f>SUM(D22:H22)</f>
         <v>9</v>
       </c>
-      <c r="J25" s="19">
-        <f>(I25/$I$12)*100</f>
+      <c r="J22" s="43">
+        <f>(I22/$I$12)*100</f>
         <v>75</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="46.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C26" s="10"/>
+      <c r="K22" s="44"/>
+    </row>
+    <row r="23" spans="1:11" ht="46.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C23" s="10"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C24" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="27"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C27" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="H27" s="28"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E29" s="3"/>
-      <c r="F29" s="11"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
+      <c r="F26" s="11"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G24:H24"/>
     <mergeCell ref="D3:H3"/>
     <mergeCell ref="C1:H1"/>
     <mergeCell ref="A10:A13"/>
